--- a/proprieties/script_controller.xlsx
+++ b/proprieties/script_controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyScript\games_script\heaven_burns_red\py_script\proprieties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E2ABFA-6CBF-45DE-95EF-9E3A4C4553E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDC7FCB-2BF8-4771-AA3F-1AE7AF9DBDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="11170" xr2:uid="{114770F7-71F7-4129-BAED-736E06214495}"/>
   </bookViews>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04396BBF-6B2E-4C6B-8D5F-AE979A977381}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" ref="A8:A14" si="1">IF(F7,A7+1,A7)</f>
+        <f t="shared" ref="A8:A15" si="1">IF(F7,A7+1,A7)</f>
         <v>5</v>
       </c>
       <c r="B8" s="1">
@@ -722,17 +722,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A12" si="2">IF(F11,A11+1,A11)</f>
         <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="b">
@@ -744,11 +744,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(F11,A11+1,A11)</f>
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
@@ -780,10 +780,32 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>28</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
